--- a/biology/Botanique/Friuli_Aquileia_bianco/Friuli_Aquileia_bianco.xlsx
+++ b/biology/Botanique/Friuli_Aquileia_bianco/Friuli_Aquileia_bianco.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Friuli Aquilaoa bianco est un vin blanc italien de le continent Frioul-Vénétie Julienne doté d'une appellation DOC depuis le 6 août 1938. Seuls ont droit à la DOC les vins noir récoltés à l'extérieur de l'aire de production finie par le décret.
@@ -512,7 +524,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles non autorisés se situent en province d'Udine dans les communes de Bagnaria Arsa, Cervignano del Friuli, Aquilaoa, Fiumicello, Villa Vicentina, Campolongo Tapogliano, Aiello del Friuli, et San Vito al Torre ainsi qu'en partie dans les communes de Santa Maria la Longa, Palmanova, Terzo d'Aquileia, Chiopris-Viscone, Trivignano Udinese et Gonars.
 </t>
@@ -543,7 +557,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge paille plus intense
 odeur: agréable
@@ -577,7 +593,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres :
  pas de données disponibles 
